--- a/문서/String.xlsx
+++ b/문서/String.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD33579B-9D8B-4D2D-A04A-F9266C79B311}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8932A8AC-211A-494F-887A-9452BB186B7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="2385" windowWidth="11925" windowHeight="11295" xr2:uid="{61D34DDC-3A2B-4BF9-AD5A-E67C6195C870}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{61D34DDC-3A2B-4BF9-AD5A-E67C6195C870}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,15 +51,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전사는 전위에서 최대한 버티는데 적합합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>궁수는 다재다능한 능력을 가지고 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법사는 강한 공격 능력을 가지고 있습니다.</t>
+    <t>마법사는 강한 공격 능력을 가지고 있습니다.
+체력이 약하기에 전방에서 공격을 받아내는 능력은 부족합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사는 체려깅 강해 전위에서 최대한 버티는데 적합합니다.
+공격 능력이 높지 않아 마법사나 궁수의 지원이 필요합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수는 다재다능한 능력을 가지고 있습니다.
+마법사나 전사 만큼의 특화된 능력을 가지지 않습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,9 +109,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +433,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -447,37 +453,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>90001</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>90002</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>90003</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
